--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/ironsource.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/ironsource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>class_name</t>
   </si>
@@ -38,30 +38,6 @@
   </si>
   <si>
     <t>labelAPI</t>
-  </si>
-  <si>
-    <t>com.ironsource.adobeair.IronSource</t>
-  </si>
-  <si>
-    <t>IronSource.instance.setMetaData(Key:"do_not_sell",Value:"true");</t>
-  </si>
-  <si>
-    <t>IronSource.instance.setUserId(YOUR_USER_ID);</t>
-  </si>
-  <si>
-    <t>If the user has opted out of “sale” of personal information:</t>
-  </si>
-  <si>
-    <t>The userID is a unique identifier for each of your users. You can set the userID parameter, or omit it and let us generate one for you. If you choose to skip setting the userID in your code, the SDK will generate an equitable userID.</t>
-  </si>
-  <si>
-    <t>The user id is a unique identifier for each of your users. You can set the user id parameter, or omit it and let us generate one for you. If you choose to skip setting the user id in your code, the SDK will generate an equitable user id.</t>
-  </si>
-  <si>
-    <t>{'personal information'}</t>
-  </si>
-  <si>
-    <t>{'id', 'id.'}</t>
   </si>
 </sst>
 </file>
@@ -419,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,46 +427,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
